--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Tnfrsf14</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.0131030495445</v>
+        <v>6.640791666666666</v>
       </c>
       <c r="H2">
-        <v>2.0131030495445</v>
+        <v>19.922375</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7266950649462826</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7266950649462824</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.39067755935886</v>
+        <v>5.593702666666666</v>
       </c>
       <c r="N2">
-        <v>5.39067755935886</v>
+        <v>16.781108</v>
       </c>
       <c r="O2">
-        <v>0.195881410601599</v>
+        <v>0.1866080739693142</v>
       </c>
       <c r="P2">
-        <v>0.195881410601599</v>
+        <v>0.1866080739693142</v>
       </c>
       <c r="Q2">
-        <v>10.85198943385642</v>
+        <v>37.14661405461111</v>
       </c>
       <c r="R2">
-        <v>10.85198943385642</v>
+        <v>334.3195264915</v>
       </c>
       <c r="S2">
-        <v>0.195881410601599</v>
+        <v>0.1356071664326315</v>
       </c>
       <c r="T2">
-        <v>0.195881410601599</v>
+        <v>0.1356071664326315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.0131030495445</v>
+        <v>6.640791666666666</v>
       </c>
       <c r="H3">
-        <v>2.0131030495445</v>
+        <v>19.922375</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7266950649462826</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7266950649462824</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.07814438588553</v>
+        <v>3.165799333333334</v>
       </c>
       <c r="N3">
-        <v>3.07814438588553</v>
+        <v>9.497398</v>
       </c>
       <c r="O3">
-        <v>0.1118507381870494</v>
+        <v>0.105612284272291</v>
       </c>
       <c r="P3">
-        <v>0.1118507381870494</v>
+        <v>0.105612284272291</v>
       </c>
       <c r="Q3">
-        <v>6.196621850164443</v>
+        <v>21.02341383113889</v>
       </c>
       <c r="R3">
-        <v>6.196621850164443</v>
+        <v>189.21072448025</v>
       </c>
       <c r="S3">
-        <v>0.1118507381870494</v>
+        <v>0.07674792577837779</v>
       </c>
       <c r="T3">
-        <v>0.1118507381870494</v>
+        <v>0.07674792577837777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.0131030495445</v>
+        <v>6.640791666666666</v>
       </c>
       <c r="H4">
-        <v>2.0131030495445</v>
+        <v>19.922375</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7266950649462826</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7266950649462824</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.2408211332425</v>
+        <v>20.201379</v>
       </c>
       <c r="N4">
-        <v>18.2408211332425</v>
+        <v>60.604137</v>
       </c>
       <c r="O4">
-        <v>0.6628179361067104</v>
+        <v>0.673925778926067</v>
       </c>
       <c r="P4">
-        <v>0.6628179361067104</v>
+        <v>0.673925778926067</v>
       </c>
       <c r="Q4">
-        <v>36.72065264952624</v>
+        <v>134.153149318375</v>
       </c>
       <c r="R4">
-        <v>36.72065264952624</v>
+        <v>1207.378343865375</v>
       </c>
       <c r="S4">
-        <v>0.6628179361067104</v>
+        <v>0.4897385376856523</v>
       </c>
       <c r="T4">
-        <v>0.6628179361067104</v>
+        <v>0.4897385376856522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,49 +720,545 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.0131030495445</v>
+        <v>6.640791666666666</v>
       </c>
       <c r="H5">
-        <v>2.0131030495445</v>
+        <v>19.922375</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.7266950649462826</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7266950649462824</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.810464841926744</v>
+        <v>1.014792333333333</v>
       </c>
       <c r="N5">
-        <v>0.810464841926744</v>
+        <v>3.044377</v>
       </c>
       <c r="O5">
-        <v>0.02944991510464115</v>
+        <v>0.03385386283232782</v>
       </c>
       <c r="P5">
-        <v>0.02944991510464115</v>
+        <v>0.03385386283232782</v>
       </c>
       <c r="Q5">
-        <v>1.63154924483133</v>
+        <v>6.739024470597221</v>
       </c>
       <c r="R5">
-        <v>1.63154924483133</v>
+        <v>60.65122023537499</v>
       </c>
       <c r="S5">
-        <v>0.02944991510464115</v>
+        <v>0.024601435049621</v>
       </c>
       <c r="T5">
-        <v>0.02944991510464115</v>
+        <v>0.024601435049621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.026451</v>
+      </c>
+      <c r="H6">
+        <v>0.07935300000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.002894505975752508</v>
+      </c>
+      <c r="J6">
+        <v>0.002894505975752507</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5.593702666666666</v>
+      </c>
+      <c r="N6">
+        <v>16.781108</v>
+      </c>
+      <c r="O6">
+        <v>0.1866080739693142</v>
+      </c>
+      <c r="P6">
+        <v>0.1866080739693142</v>
+      </c>
+      <c r="Q6">
+        <v>0.147959029236</v>
+      </c>
+      <c r="R6">
+        <v>1.331631263124</v>
+      </c>
+      <c r="S6">
+        <v>0.000540138185227846</v>
+      </c>
+      <c r="T6">
+        <v>0.000540138185227846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.026451</v>
+      </c>
+      <c r="H7">
+        <v>0.07935300000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.002894505975752508</v>
+      </c>
+      <c r="J7">
+        <v>0.002894505975752507</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.165799333333334</v>
+      </c>
+      <c r="N7">
+        <v>9.497398</v>
+      </c>
+      <c r="O7">
+        <v>0.105612284272291</v>
+      </c>
+      <c r="P7">
+        <v>0.105612284272291</v>
+      </c>
+      <c r="Q7">
+        <v>0.08373855816600001</v>
+      </c>
+      <c r="R7">
+        <v>0.7536470234940001</v>
+      </c>
+      <c r="S7">
+        <v>0.000305695387939019</v>
+      </c>
+      <c r="T7">
+        <v>0.0003056953879390189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.026451</v>
+      </c>
+      <c r="H8">
+        <v>0.07935300000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.002894505975752508</v>
+      </c>
+      <c r="J8">
+        <v>0.002894505975752507</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>20.201379</v>
+      </c>
+      <c r="N8">
+        <v>60.604137</v>
+      </c>
+      <c r="O8">
+        <v>0.673925778926067</v>
+      </c>
+      <c r="P8">
+        <v>0.673925778926067</v>
+      </c>
+      <c r="Q8">
+        <v>0.534346675929</v>
+      </c>
+      <c r="R8">
+        <v>4.809120083361001</v>
+      </c>
+      <c r="S8">
+        <v>0.001950682194315164</v>
+      </c>
+      <c r="T8">
+        <v>0.001950682194315164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.026451</v>
+      </c>
+      <c r="H9">
+        <v>0.07935300000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.002894505975752508</v>
+      </c>
+      <c r="J9">
+        <v>0.002894505975752507</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.014792333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.044377</v>
+      </c>
+      <c r="O9">
+        <v>0.03385386283232782</v>
+      </c>
+      <c r="P9">
+        <v>0.03385386283232782</v>
+      </c>
+      <c r="Q9">
+        <v>0.026842272009</v>
+      </c>
+      <c r="R9">
+        <v>0.241580448081</v>
+      </c>
+      <c r="S9">
+        <v>9.799020827047858E-05</v>
+      </c>
+      <c r="T9">
+        <v>9.799020827047857E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.471104333333333</v>
+      </c>
+      <c r="H10">
+        <v>7.413313</v>
+      </c>
+      <c r="I10">
+        <v>0.2704104290779649</v>
+      </c>
+      <c r="J10">
+        <v>0.2704104290779649</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.593702666666666</v>
+      </c>
+      <c r="N10">
+        <v>16.781108</v>
+      </c>
+      <c r="O10">
+        <v>0.1866080739693142</v>
+      </c>
+      <c r="P10">
+        <v>0.1866080739693142</v>
+      </c>
+      <c r="Q10">
+        <v>13.82262289897822</v>
+      </c>
+      <c r="R10">
+        <v>124.403606090804</v>
+      </c>
+      <c r="S10">
+        <v>0.05046076935145487</v>
+      </c>
+      <c r="T10">
+        <v>0.05046076935145487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.471104333333333</v>
+      </c>
+      <c r="H11">
+        <v>7.413313</v>
+      </c>
+      <c r="I11">
+        <v>0.2704104290779649</v>
+      </c>
+      <c r="J11">
+        <v>0.2704104290779649</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.165799333333334</v>
+      </c>
+      <c r="N11">
+        <v>9.497398</v>
+      </c>
+      <c r="O11">
+        <v>0.105612284272291</v>
+      </c>
+      <c r="P11">
+        <v>0.105612284272291</v>
+      </c>
+      <c r="Q11">
+        <v>7.823020451063779</v>
+      </c>
+      <c r="R11">
+        <v>70.40718405957401</v>
+      </c>
+      <c r="S11">
+        <v>0.02855866310597422</v>
+      </c>
+      <c r="T11">
+        <v>0.02855866310597422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.471104333333333</v>
+      </c>
+      <c r="H12">
+        <v>7.413313</v>
+      </c>
+      <c r="I12">
+        <v>0.2704104290779649</v>
+      </c>
+      <c r="J12">
+        <v>0.2704104290779649</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>20.201379</v>
+      </c>
+      <c r="N12">
+        <v>60.604137</v>
+      </c>
+      <c r="O12">
+        <v>0.673925778926067</v>
+      </c>
+      <c r="P12">
+        <v>0.673925778926067</v>
+      </c>
+      <c r="Q12">
+        <v>49.919715186209</v>
+      </c>
+      <c r="R12">
+        <v>449.2774366758811</v>
+      </c>
+      <c r="S12">
+        <v>0.1822365590460995</v>
+      </c>
+      <c r="T12">
+        <v>0.1822365590460995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.471104333333333</v>
+      </c>
+      <c r="H13">
+        <v>7.413313</v>
+      </c>
+      <c r="I13">
+        <v>0.2704104290779649</v>
+      </c>
+      <c r="J13">
+        <v>0.2704104290779649</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.014792333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.044377</v>
+      </c>
+      <c r="O13">
+        <v>0.03385386283232782</v>
+      </c>
+      <c r="P13">
+        <v>0.03385386283232782</v>
+      </c>
+      <c r="Q13">
+        <v>2.507657732333445</v>
+      </c>
+      <c r="R13">
+        <v>22.568919591001</v>
+      </c>
+      <c r="S13">
+        <v>0.009154437574436333</v>
+      </c>
+      <c r="T13">
+        <v>0.009154437574436333</v>
       </c>
     </row>
   </sheetData>
